--- a/To-Submit/Tests and Marking Scheme (Checklist).xlsx
+++ b/To-Submit/Tests and Marking Scheme (Checklist).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aston\Documents\GitHub\GP3\To-Submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23AE13-88C8-4D21-A4A4-D50E08B406E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AEE61-FC8B-4115-981D-9D0C2AAA5672}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Marking Scheme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="273">
   <si>
     <t>Intu</t>
   </si>
@@ -76,9 +77,6 @@
     <t>Cinema</t>
   </si>
   <si>
-    <t>10, High Str</t>
-  </si>
-  <si>
     <t>Test  Data</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>all except above</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -130,9 +125,6 @@
     <t>price of seats in</t>
   </si>
   <si>
-    <t>NT1, NT2, NT3</t>
-  </si>
-  <si>
     <t>address of</t>
   </si>
   <si>
@@ -145,18 +137,12 @@
     <t>Film</t>
   </si>
   <si>
-    <t xml:space="preserve">films of </t>
-  </si>
-  <si>
     <t>Carol Reed</t>
   </si>
   <si>
     <t>The Third Man</t>
   </si>
   <si>
-    <t>Intu,Intimate</t>
-  </si>
-  <si>
     <t>Actual results</t>
   </si>
   <si>
@@ -166,15 +152,6 @@
     <t>only on film</t>
   </si>
   <si>
-    <t>Hitchcock</t>
-  </si>
-  <si>
-    <t>3 films</t>
-  </si>
-  <si>
-    <t>Rebecca, Notorious, Rope</t>
-  </si>
-  <si>
     <t>films released in</t>
   </si>
   <si>
@@ -217,21 +194,6 @@
     <t>change seat price</t>
   </si>
   <si>
-    <t>Phoenix 1</t>
-  </si>
-  <si>
-    <t>Rialto 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intu </t>
-  </si>
-  <si>
-    <t>Intu 2</t>
-  </si>
-  <si>
-    <t>intu 2</t>
-  </si>
-  <si>
     <t>Hitchin</t>
   </si>
   <si>
@@ -248,31 +210,6 @@
   </si>
   <si>
     <t>Delete</t>
-  </si>
-  <si>
-    <t>one screen showing different films on different dates - Intu 1</t>
-  </si>
-  <si>
-    <t>one screen showing the same film on different dates - Intu 2</t>
-  </si>
-  <si>
-    <t>one film on different screens on different dates - Rebecca</t>
-  </si>
-  <si>
-    <t>one film on the same screen on different dates - African Queen</t>
-  </si>
-  <si>
-    <t>one film on different screens on the same date - Rope</t>
-  </si>
-  <si>
-    <t>same screen with the same start times -  Intu 1</t>
-  </si>
-  <si>
-    <t>same screen with different start times - Intimate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should there be any more ?
-Note: seats booked should be set as a result of making a booking </t>
   </si>
   <si>
     <t>all screens for one cinema</t>
@@ -784,15 +721,39 @@
     <t>4+ seats are available</t>
   </si>
   <si>
-    <t>Booking table is updated with provided details, remaining seats for screen is reduced to 62 from 66.</t>
-  </si>
-  <si>
     <t>Table is updated and seats are reduced correctly.</t>
   </si>
   <si>
     <t>Two members make separate bookings of the same performance.</t>
   </si>
   <si>
+    <t>2+ seats are available</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Non-active members attempt to make a booking</t>
+  </si>
+  <si>
+    <t>Seats requested for booking exceed seats remaining</t>
+  </si>
+  <si>
+    <t>Member cancels membership</t>
+  </si>
+  <si>
+    <t>Member cancels (deletes) their booking</t>
+  </si>
+  <si>
+    <t>Intu, Intimate</t>
+  </si>
+  <si>
+    <t>10, High St</t>
+  </si>
+  <si>
+    <t>All except the above</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -802,6 +763,851 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Cinema:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Phoenix" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "1"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cinema:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Rialto" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cinema:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Intu"</t>
+    </r>
+  </si>
+  <si>
+    <t>Results with screens 1, 2 and 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cinema: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Intu"</t>
+    </r>
+  </si>
+  <si>
+    <t>films directed by</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>member</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table is updated with inputted data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>film</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table is updated with inputted data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cinema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table is updated with inputted data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The change is reflected in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cinema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table is updated with inputted data</t>
+    </r>
+  </si>
+  <si>
+    <t>Cinema 4, Xscape, Milton Keynes</t>
+  </si>
+  <si>
+    <t>The cinema is added to the table with the data provided</t>
+  </si>
+  <si>
+    <t>The screen is added to the table with the data provided</t>
+  </si>
+  <si>
+    <t>The member is added to the table with the data provided</t>
+  </si>
+  <si>
+    <t>The film is added to the table with the data provided</t>
+  </si>
+  <si>
+    <t>Captain Marvel, 2019, Anna Boden</t>
+  </si>
+  <si>
+    <t>1555, Mr Bill Bob, Active, pass, 24/03/19</t>
+  </si>
+  <si>
+    <t>Auto increment filmno</t>
+  </si>
+  <si>
+    <t>Screen 4, cinema 1, 20 seats, 3.00</t>
+  </si>
+  <si>
+    <t>cinema 1 mary jobs</t>
+  </si>
+  <si>
+    <t>Mary Jobs replaces Andy smith as the manager of Intu (cinema 1)</t>
+  </si>
+  <si>
+    <t>Helen Miranda Cancelled</t>
+  </si>
+  <si>
+    <t>Helen Miranda's memberStat is changed from Active to Cancelled</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The changed is reflected in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>member</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>screen 1, cinema 1, 6.00</t>
+  </si>
+  <si>
+    <t>The seat price is updated from 5.50 to 6.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The changed is reflected in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>Jose Alves</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Login refused, error message is  shown</t>
+  </si>
+  <si>
+    <t>Cant navigate to make a booking</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1111 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> director</t>
+    </r>
+  </si>
+  <si>
+    <t>Booking/Login refused, error message is  shown</t>
+  </si>
+  <si>
+    <t>Attempt login with invalid/empty credentials</t>
+  </si>
+  <si>
+    <t>Search query returns no results</t>
+  </si>
+  <si>
+    <t>Error message tells the user that nothing matched their criteria</t>
+  </si>
+  <si>
+    <t>Error message is displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Film List Search &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release Year:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "2019"</t>
+    </r>
+  </si>
+  <si>
+    <t>Error message says that the seats exceed the amount that remains</t>
+  </si>
+  <si>
+    <t>25 seats remain</t>
+  </si>
+  <si>
+    <t>Attempt to book 26 seats at Phoenix</t>
+  </si>
+  <si>
+    <t>Attempt 'Entry' to a booking that doesn't belong to the user</t>
+  </si>
+  <si>
+    <t>Error message says it is not their booking number</t>
+  </si>
+  <si>
+    <t>Username is found automatically</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Booking Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">69 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logged in as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 1111</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancel a booking that doesn't belong to the logged in user</t>
+  </si>
+  <si>
+    <t>Error message says that no bookings where found with no####</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Booking Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>232</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Logged in as: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>Member attempts to cancel their membership with wrong password</t>
+  </si>
+  <si>
+    <t>Cancellation refused, error message is  shown</t>
+  </si>
+  <si>
+    <t>Logged in member cancels their own membership</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MemberNo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1111, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+  </si>
+  <si>
+    <t>Database is updated correctly.</t>
+  </si>
+  <si>
+    <t>Begins with Active memberStat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MemberNo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1111, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BookingNo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <t>5 seats added to performance</t>
+  </si>
+  <si>
+    <t>Booking deleted, and seats added to perf table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MemberNo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1333</t>
+    </r>
+  </si>
+  <si>
+    <t>Director deletes a member</t>
+  </si>
+  <si>
+    <t>Member is removed from DB and cant log in</t>
+  </si>
+  <si>
+    <t>Director deletes a film</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Film Name:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key Largo</t>
+    </r>
+  </si>
+  <si>
+    <t>Record deleted, listings updated.</t>
+  </si>
+  <si>
+    <t>Update totalPrice when booking is made</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seats:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seat Price:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5.00</t>
+    </r>
+  </si>
+  <si>
+    <t>totalPrice data in DB is generated to 15.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total price is 15.00 in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">booking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+  </si>
+  <si>
+    <t>Booking table is updated with provided details,
+ remaining seats for screen is reduced to 62 from 66.</t>
+  </si>
+  <si>
+    <t>Booking table is updated correctly with two separate bookings,
+ remaining seats is reduced by 2.</t>
+  </si>
+  <si>
+    <t>Jose Alves is logged out of the system and the database
+ is updated as cancelled</t>
+  </si>
+  <si>
+    <t>Database record 'memberStat' for member '1111' is changed
+ from 'Active' to 'Cancelled'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The record for the relevant booking is removed from
+ the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>booking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table, available seats updated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MemberNo's:</t>
     </r>
     <r>
@@ -812,7 +1618,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1111, 1333, </t>
+      <t xml:space="preserve"> 1111, 1333,
+ </t>
     </r>
     <r>
       <rPr>
@@ -858,35 +1665,18 @@
     </r>
   </si>
   <si>
-    <t>Booking table is updated correctly with two separate bookings, remaining seats is reduced by 2.</t>
-  </si>
-  <si>
-    <t>2+ seats are available</t>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>Non-active members attempt to make a booking</t>
-  </si>
-  <si>
-    <t>Seats requested for booking exceed seats remaining</t>
-  </si>
-  <si>
-    <t>Member cancels membership</t>
-  </si>
-  <si>
-    <t>Delete a member</t>
-  </si>
-  <si>
-    <t>Member cancels (deletes) their booking</t>
+    <t>Attempt login as 2111 (Cancelled)</t>
+  </si>
+  <si>
+    <t>Film is deleted from DB and no longer shows
+ in performance listings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,8 +1786,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1084,18 +1881,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB57BEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7B8F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1125,7 +1910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1154,35 +1939,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1380,11 +2136,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1394,80 +2452,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1492,39 +2508,39 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,105 +2558,251 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1927,873 +3089,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <v>2</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>3</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
+        <v>5</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="67" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>6</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1344</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <v>7</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
+        <v>8</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
+        <v>9</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>11</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="60">
+        <v>25</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
+        <v>12</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="74">
+        <v>3</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="63">
+        <v>13</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="63">
+        <v>14</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
+        <v>15</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
+        <v>18</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="64">
+        <v>1948</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="E22" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
+        <v>19</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B25" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="63">
+        <v>21</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="63">
+        <v>22</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="63">
+        <v>23</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
+        <v>24</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="63">
+        <v>25</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="86">
+        <v>26</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="90">
+        <v>27</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="90">
+        <v>28</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="90">
+        <v>29</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="90">
+        <v>30</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="90">
+        <v>31</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="90">
+        <v>32</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="90">
+        <v>33</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="86">
+        <v>34</v>
+      </c>
+      <c r="B42" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="90">
+        <v>35</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="117" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="117" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="95">
+        <v>36</v>
+      </c>
+      <c r="B44" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="124"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
+        <v>37</v>
+      </c>
+      <c r="B46" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="127"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="101">
+        <v>38</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="101">
+        <v>39</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="101">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1344</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10">
-        <v>25</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="B51" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="101">
+        <v>41</v>
+      </c>
+      <c r="B52" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="101">
         <v>42</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="B53" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="101">
         <v>43</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B54" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="103" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="101">
         <v>44</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="B55" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="103" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="107"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="108">
+        <v>45</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="110" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="111">
         <v>46</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="B58" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="112"/>
+      <c r="F58" s="113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="114">
         <v>47</v>
       </c>
-      <c r="C23" s="10">
-        <v>1948</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>19</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <v>20</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <v>21</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>22</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
-        <v>23</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
-        <v>24</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
-        <v>25</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="71"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="87"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="90"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="B59" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="115"/>
+      <c r="F59" s="116" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A56:F56"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2801,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6AA3EA-2373-48A9-8595-A1F219FCE015}">
   <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2816,384 +4156,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="A1" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="A3" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="A4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>172</v>
+      <c r="B5" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1.2</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>171</v>
+      <c r="B6" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="20">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="20">
         <f>SUM(D5:D6)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+      <c r="A8" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="38">
         <v>2.1</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>168</v>
+      <c r="B9" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="38">
         <f t="shared" ref="A10:A15" si="0">A9+0.1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>167</v>
+      <c r="B10" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>166</v>
+      <c r="B11" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>164</v>
+      <c r="B12" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>163</v>
+      <c r="B13" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>162</v>
+      <c r="B14" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>161</v>
+      <c r="B15" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="40">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="20">
         <f ca="1">SUM(C9:C24)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="20">
         <f>SUM(D9:D15)</f>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="A17" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="38">
         <v>3.1</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="D18" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="38">
         <f t="shared" ref="A19:A24" si="1">A18+0.1</f>
         <v>3.2</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>157</v>
+      <c r="B19" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="38">
         <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>156</v>
+      <c r="B20" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="38">
         <f t="shared" si="1"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>154</v>
+      <c r="B21" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="38">
         <f t="shared" si="1"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>153</v>
+      <c r="B22" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="38">
         <f t="shared" si="1"/>
         <v>3.6000000000000005</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>152</v>
+      <c r="B23" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="38">
         <f t="shared" si="1"/>
         <v>3.7000000000000006</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>150</v>
+      <c r="B24" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="40">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="20">
         <f>SUM(C19:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="20">
         <f>SUM(D18:D24)</f>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="38">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61">
+      <c r="B27" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
+      <c r="A28" s="38">
         <f t="shared" ref="A28:A33" si="2">A27+0.1</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61">
+      <c r="B28" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
+      <c r="A29" s="38">
         <f t="shared" si="2"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61">
+      <c r="B29" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+      <c r="A30" s="38">
         <f t="shared" si="2"/>
         <v>4.3999999999999986</v>
       </c>
-      <c r="B30" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="60"/>
+      <c r="B30" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+      <c r="A31" s="38">
         <f t="shared" si="2"/>
         <v>4.4999999999999982</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>141</v>
+      <c r="B31" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="3">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
+      <c r="A32" s="38">
         <f t="shared" si="2"/>
         <v>4.5999999999999979</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>139</v>
+      <c r="B32" s="39" t="s">
+        <v>118</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="3">
@@ -3201,66 +4541,66 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
+      <c r="A33" s="38">
         <f t="shared" si="2"/>
         <v>4.6999999999999975</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>138</v>
+      <c r="B33" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="55">
+      <c r="A34" s="36"/>
+      <c r="B34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="35">
         <f>SUM(C31:C33)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="35">
         <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>129</v>
+      <c r="A37" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
@@ -3268,331 +4608,331 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22">
+      <c r="A38" s="5"/>
+      <c r="B38" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="40">
+      <c r="A39" s="30"/>
+      <c r="B39" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="20">
         <f ca="1">C7+C25+C16+C34</f>
         <v>0</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="20">
         <f>D7+D25+D16+D34+D38</f>
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
+      <c r="A40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="23">
         <v>6.1</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>124</v>
+      <c r="B42" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C42"/>
-      <c r="D42" s="46">
+      <c r="D42" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="23">
         <f>A42+0.1</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>123</v>
+      <c r="B43" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C43"/>
-      <c r="D43" s="46">
+      <c r="D43" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="23">
         <f>A43+0.1</f>
         <v>6.2999999999999989</v>
       </c>
-      <c r="B44" s="47" t="s">
-        <v>122</v>
+      <c r="B44" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="C44"/>
-      <c r="D44" s="46">
+      <c r="D44" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
+      <c r="A45" s="23">
         <f>A44+0.1</f>
         <v>6.3999999999999986</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>121</v>
+      <c r="B45" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C45"/>
-      <c r="D45" s="46">
+      <c r="D45" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
+      <c r="A46" s="23">
         <f>A45+0.1</f>
         <v>6.4999999999999982</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>120</v>
+      <c r="B46" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C46"/>
-      <c r="D46" s="46">
+      <c r="D46" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="40">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="20">
         <f>SUM(C42:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="20">
         <f>SUM(D42:D46)</f>
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="23">
         <v>6.6</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="37">
+      <c r="B50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="23">
         <v>6.2</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="37">
+      <c r="B51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="23">
         <v>6.3</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>114</v>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="40">
+    <row r="53" spans="1:4" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="20">
         <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="20">
         <f>SUM(D50:D52)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+    <row r="54" spans="1:4" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="A55" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="23">
         <v>7.1</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="37">
+      <c r="B56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="23">
         <v>7.2</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="37">
+      <c r="B57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="23">
         <v>7.3</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="37">
+      <c r="B58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="23">
         <v>7.4</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="37"/>
+      <c r="B59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37">
+      <c r="B60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37">
+      <c r="B61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37">
+      <c r="B62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="40">
+      <c r="A63" s="22"/>
+      <c r="B63" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="20">
         <f>SUM(C56:C58)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="20">
         <f>SUM(D56:D62)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="40">
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="20">
         <f ca="1">C39+C47+C53+C63</f>
         <v>0</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="20">
         <f>D39+D47+D53+D63</f>
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="27" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="40">
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="20">
         <f ca="1">C64/150*100</f>
         <v>0</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="20">
         <f>D64/150*100</f>
         <v>100</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="40">
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="20">
         <f ca="1">C65/5</f>
         <v>0</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="20">
         <f>D65/5</f>
         <v>20</v>
       </c>
@@ -3603,147 +4943,147 @@
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="37"/>
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="34" t="str">
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="14" t="str">
         <f ca="1">IF($C$65&gt;=79.5,"√","")</f>
         <v/>
       </c>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="31" t="str">
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="11" t="str">
         <f ca="1">IF($C$65&lt;69.5," ",IF($C$65&lt;79.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="31" t="str">
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="11" t="str">
         <f ca="1">IF($C$65&lt;59.5," ",IF($C$65&lt;69.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="31" t="str">
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="11" t="str">
         <f ca="1">IF($C$65&lt;49.5," ",IF($C$65&lt;59.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="31" t="str">
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="11" t="str">
         <f ca="1">IF($C$65&lt;39.5," ",IF($C$65&lt;49.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="31" t="str">
+    <row r="74" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="11" t="str">
         <f ca="1">IF($C$65&lt;29.5," ",IF($C$65&lt;39.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="31" t="str">
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="11" t="str">
         <f ca="1">IF($C$65&lt;19.5," ",IF($C$65&lt;29.5,"√",""))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="28" t="str">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="8" t="str">
         <f ca="1">IF($C$65&lt;0," ",IF($C$65&lt;19.5,"√",""))</f>
         <v>√</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:5" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:4" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:4" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3942,16 +5282,16 @@
     <row r="285" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
